--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_15_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>953035.4922874288</v>
+        <v>950334.275635972</v>
       </c>
     </row>
     <row r="7">
@@ -665,13 +665,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015062</v>
+        <v>12.83417464571001</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="W2" t="n">
-        <v>263.7138800015062</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>225.403139763615</v>
+        <v>72.36698404190653</v>
       </c>
     </row>
     <row r="3">
@@ -735,22 +735,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>16.66197659284158</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.0227195864234</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -783,19 +783,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527768</v>
       </c>
       <c r="S3" t="n">
-        <v>147.1499354121988</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>163.551485410807</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -835,7 +835,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>122.1505735248085</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -871,16 +871,16 @@
         <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>118.2157625792593</v>
+        <v>77.75392192072599</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -896,25 +896,25 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>316.5565966897706</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>54.40699547009266</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>383.6877278154288</v>
       </c>
       <c r="G5" t="n">
-        <v>383.6877278154321</v>
+        <v>12.41899097776993</v>
       </c>
       <c r="H5" t="n">
-        <v>309.9416328899765</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>99.30025118863676</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>143.3066953660377</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>383.6877278154321</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +972,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>95.7768212573593</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.8005767399402</v>
       </c>
       <c r="H6" t="n">
-        <v>97.33388804333225</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>36.27346476951724</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1020,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>4.360182258713721</v>
+        <v>4.360182258714076</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>143.0237294698459</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>193.9455960238326</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8398728426018</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>134.7176744547549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -1054,7 +1054,7 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>87.60336766488317</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1072,10 +1072,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>116.5499160015377</v>
+        <v>116.5499160015378</v>
       </c>
       <c r="J7" t="n">
-        <v>1.905236112643436</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -1099,28 +1099,28 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>119.1307056315183</v>
+        <v>119.1307056315186</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>201.4735595059547</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>222.4186055422209</v>
       </c>
       <c r="U7" t="n">
-        <v>44.09326026916462</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,28 +1130,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>150.207039736206</v>
+        <v>117.523540462315</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,7 +1181,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>206.6581849802338</v>
@@ -1190,16 +1190,16 @@
         <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1230,7 +1230,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I9" t="n">
-        <v>20.22295923705015</v>
+        <v>20.22295923705012</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,22 +1291,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>90.69811547110028</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>147.2515091551288</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1339,25 +1339,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>245.5761046894317</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1373,10 +1373,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>308.3140811037744</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>304.006512519981</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -1388,7 +1388,7 @@
         <v>289.9775033393748</v>
       </c>
       <c r="I11" t="n">
-        <v>24.14662204184555</v>
+        <v>24.14662204184557</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>98.88510599615211</v>
+        <v>98.88510599615212</v>
       </c>
       <c r="T11" t="n">
         <v>201.9388203544492</v>
@@ -1436,7 +1436,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>134.757564313352</v>
       </c>
       <c r="H12" t="n">
-        <v>87.2605838181255</v>
+        <v>87.26058381812551</v>
       </c>
       <c r="I12" t="n">
-        <v>10.48847705530788</v>
+        <v>10.48847705530791</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.8230033569236</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>24.24864566843165</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>79.8133067990524</v>
       </c>
       <c r="S13" t="n">
         <v>186.2346889920369</v>
@@ -1582,7 +1582,7 @@
         <v>218.682419239904</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2007761200435</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1591,7 +1591,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>17.53779970793324</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1664,7 +1664,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701357</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986251</v>
+        <v>121.8000472740349</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1816,7 +1816,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1825,7 +1825,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>6.228861054227309</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
@@ -2008,16 +2008,16 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>142.428530160118</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2050,7 +2050,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9507379795602</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2144,7 +2144,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784699</v>
       </c>
       <c r="Y20" t="n">
         <v>386.2379386560536</v>
@@ -2239,10 +2239,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326504013</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
@@ -2251,13 +2251,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>20.88994825141549</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2476,25 +2476,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456777</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>32.2755217574032</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,13 +2521,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
         <v>286.1844743892441</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187875</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2716,7 +2716,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>140.5758943588669</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2795,7 +2795,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
         <v>381.9303700722618</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,19 +2953,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>102.1557845699814</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3010,10 +3010,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>80.90831282609508</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
         <v>218.5846533520948</v>
@@ -3035,7 +3035,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
-        <v>381.9303700722605</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F32" t="n">
         <v>406.8760457417114</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3089,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174139</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,22 +3190,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>1.79977260571647</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3241,10 +3241,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>105.7906564314201</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3266,7 +3266,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C35" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710085</v>
       </c>
       <c r="D35" t="n">
         <v>354.683041620683</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>3.006892987834192</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3472,13 +3472,13 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>283.0680363729396</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3506,7 +3506,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D38" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E38" t="n">
         <v>381.9303700722618</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3664,22 +3664,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>99.9742741983388</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>36.86080948088102</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3737,7 +3737,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C41" t="n">
         <v>365.2728917710076</v>
@@ -3749,7 +3749,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F41" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417123</v>
       </c>
       <c r="G41" t="n">
         <v>409.8033385187866</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3898,7 +3898,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>120.7871326503973</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3907,16 +3907,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3952,16 +3952,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>219.4517041866507</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,25 +4135,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>123.9815576456784</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>4.97448884043817</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4198,7 +4198,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
         <v>218.5846533520948</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>560.79792428368</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="C2" t="n">
-        <v>560.79792428368</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="D2" t="n">
-        <v>560.79792428368</v>
+        <v>307.3840804899464</v>
       </c>
       <c r="E2" t="n">
-        <v>294.4202677165019</v>
+        <v>41.00642392276842</v>
       </c>
       <c r="F2" t="n">
-        <v>287.4747669672985</v>
+        <v>34.06092317356495</v>
       </c>
       <c r="G2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I2" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J2" t="n">
-        <v>49.28269087917587</v>
+        <v>49.28269087917579</v>
       </c>
       <c r="K2" t="n">
-        <v>142.2640879052542</v>
+        <v>142.264087905254</v>
       </c>
       <c r="L2" t="n">
-        <v>294.5174947515907</v>
+        <v>294.5174947515905</v>
       </c>
       <c r="M2" t="n">
-        <v>495.5981834030604</v>
+        <v>495.5981834030606</v>
       </c>
       <c r="N2" t="n">
         <v>704.5463761991318</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946889</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>646.8597007358178</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="W2" t="n">
-        <v>788.4778634388467</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="X2" t="n">
-        <v>788.4778634388467</v>
+        <v>380.4820441686398</v>
       </c>
       <c r="Y2" t="n">
-        <v>560.79792428368</v>
+        <v>307.3840804899464</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>305.0283548241683</v>
+        <v>197.1648447922847</v>
       </c>
       <c r="C3" t="n">
-        <v>305.0283548241683</v>
+        <v>180.334565405576</v>
       </c>
       <c r="D3" t="n">
-        <v>305.0283548241683</v>
+        <v>180.334565405576</v>
       </c>
       <c r="E3" t="n">
-        <v>305.0283548241683</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="F3" t="n">
-        <v>158.4937968510533</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="G3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J3" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K3" t="n">
-        <v>95.78113116957469</v>
+        <v>95.78113116957465</v>
       </c>
       <c r="L3" t="n">
-        <v>242.5255548298714</v>
+        <v>242.5255548298713</v>
       </c>
       <c r="M3" t="n">
-        <v>433.1262439263952</v>
+        <v>433.1262439263951</v>
       </c>
       <c r="N3" t="n">
-        <v>643.1802110290002</v>
+        <v>643.1802110290001</v>
       </c>
       <c r="O3" t="n">
-        <v>813.1187583557301</v>
+        <v>813.1187583557299</v>
       </c>
       <c r="P3" t="n">
-        <v>1026.524810789493</v>
+        <v>930.1763583891335</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S3" t="n">
-        <v>906.2192216098645</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T3" t="n">
-        <v>741.0157009928877</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="U3" t="n">
-        <v>512.8798550297012</v>
+        <v>808.3837902496282</v>
       </c>
       <c r="V3" t="n">
-        <v>512.8798550297012</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="W3" t="n">
-        <v>512.8798550297012</v>
+        <v>573.2316820178855</v>
       </c>
       <c r="X3" t="n">
-        <v>305.0283548241683</v>
+        <v>365.3801818123527</v>
       </c>
       <c r="Y3" t="n">
-        <v>305.0283548241683</v>
+        <v>365.3801818123527</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4462,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>481.9870716748508</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="C4" t="n">
-        <v>313.0508887469439</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="D4" t="n">
-        <v>313.0508887469439</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="E4" t="n">
-        <v>313.0508887469439</v>
+        <v>336.5564185430274</v>
       </c>
       <c r="F4" t="n">
-        <v>313.0508887469439</v>
+        <v>189.666471045117</v>
       </c>
       <c r="G4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="H4" t="n">
-        <v>144.4815281019473</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="I4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="J4" t="n">
-        <v>21.0971104001205</v>
+        <v>21.09711040012049</v>
       </c>
       <c r="K4" t="n">
         <v>126.4133765287947</v>
@@ -4495,13 +4495,13 @@
         <v>316.7083726551009</v>
       </c>
       <c r="M4" t="n">
-        <v>527.7368878375337</v>
+        <v>527.7368878375335</v>
       </c>
       <c r="N4" t="n">
-        <v>739.1822330227047</v>
+        <v>739.1822330227046</v>
       </c>
       <c r="O4" t="n">
-        <v>918.4699372075544</v>
+        <v>918.4699372075543</v>
       </c>
       <c r="P4" t="n">
         <v>1048.360858816803</v>
@@ -4516,22 +4516,22 @@
         <v>1054.855520006025</v>
       </c>
       <c r="T4" t="n">
-        <v>829.3864837640391</v>
+        <v>829.3864837640389</v>
       </c>
       <c r="U4" t="n">
-        <v>829.3864837640391</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="V4" t="n">
-        <v>829.3864837640391</v>
+        <v>563.0088271968609</v>
       </c>
       <c r="W4" t="n">
-        <v>709.9766225728681</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="X4" t="n">
-        <v>481.9870716748508</v>
+        <v>484.4695121254205</v>
       </c>
       <c r="Y4" t="n">
-        <v>481.9870716748508</v>
+        <v>484.4695121254205</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>893.536081968517</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="C5" t="n">
-        <v>893.536081968517</v>
+        <v>816.5910675842854</v>
       </c>
       <c r="D5" t="n">
-        <v>893.536081968517</v>
+        <v>816.5910675842854</v>
       </c>
       <c r="E5" t="n">
-        <v>838.5795208876153</v>
+        <v>430.8028149860411</v>
       </c>
       <c r="F5" t="n">
-        <v>831.6340201384119</v>
+        <v>43.23945355631505</v>
       </c>
       <c r="G5" t="n">
-        <v>444.0706587086823</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9983022541606</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="I5" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J5" t="n">
-        <v>93.76641159275181</v>
+        <v>93.76641159275067</v>
       </c>
       <c r="K5" t="n">
-        <v>239.032598924557</v>
+        <v>239.0325989245545</v>
       </c>
       <c r="L5" t="n">
-        <v>456.1499114825647</v>
+        <v>456.1499114825601</v>
       </c>
       <c r="M5" t="n">
-        <v>729.4041931748877</v>
+        <v>729.4041931748816</v>
       </c>
       <c r="N5" t="n">
-        <v>1011.693823202382</v>
+        <v>1011.693823202374</v>
       </c>
       <c r="O5" t="n">
-        <v>1264.916654798416</v>
+        <v>1264.916654798406</v>
       </c>
       <c r="P5" t="n">
-        <v>1446.535482189414</v>
+        <v>1446.535482189402</v>
       </c>
       <c r="Q5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="R5" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="S5" t="n">
-        <v>1534.750911261729</v>
+        <v>1389.996673518243</v>
       </c>
       <c r="T5" t="n">
-        <v>1534.750911261729</v>
+        <v>1389.996673518243</v>
       </c>
       <c r="U5" t="n">
-        <v>1281.099443398246</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="V5" t="n">
-        <v>1281.099443398246</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="W5" t="n">
-        <v>1281.099443398246</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="X5" t="n">
-        <v>1281.099443398246</v>
+        <v>1136.345205654761</v>
       </c>
       <c r="Y5" t="n">
-        <v>893.536081968517</v>
+        <v>1136.345205654761</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>783.0492822554269</v>
+        <v>264.6115818588702</v>
       </c>
       <c r="C6" t="n">
-        <v>608.5962529742999</v>
+        <v>264.6115818588702</v>
       </c>
       <c r="D6" t="n">
-        <v>608.5962529742999</v>
+        <v>264.6115818588702</v>
       </c>
       <c r="E6" t="n">
-        <v>449.3587979688443</v>
+        <v>167.8673179625477</v>
       </c>
       <c r="F6" t="n">
-        <v>302.8242399957293</v>
+        <v>167.8673179625477</v>
       </c>
       <c r="G6" t="n">
-        <v>165.6519402584159</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="H6" t="n">
-        <v>67.33488162878734</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="I6" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J6" t="n">
-        <v>70.78704471034287</v>
+        <v>49.44206107563368</v>
       </c>
       <c r="K6" t="n">
-        <v>180.9835516516536</v>
+        <v>159.6385680169435</v>
       </c>
       <c r="L6" t="n">
-        <v>375.478895483006</v>
+        <v>354.1339118482946</v>
       </c>
       <c r="M6" t="n">
-        <v>621.8026561537524</v>
+        <v>600.4576725190395</v>
       </c>
       <c r="N6" t="n">
-        <v>889.0545187259754</v>
+        <v>889.0545187259656</v>
       </c>
       <c r="O6" t="n">
-        <v>1111.317965891494</v>
+        <v>1111.317965891483</v>
       </c>
       <c r="P6" t="n">
-        <v>1270.370911090183</v>
+        <v>1270.37091109017</v>
       </c>
       <c r="Q6" t="n">
-        <v>1534.750911261729</v>
+        <v>1534.750911261715</v>
       </c>
       <c r="R6" t="n">
-        <v>1530.346686757977</v>
+        <v>1530.346686757964</v>
       </c>
       <c r="S6" t="n">
-        <v>1530.346686757977</v>
+        <v>1385.878273152059</v>
       </c>
       <c r="T6" t="n">
-        <v>1530.346686757977</v>
+        <v>1189.973630703743</v>
       </c>
       <c r="U6" t="n">
-        <v>1530.346686757977</v>
+        <v>961.8525470243474</v>
       </c>
       <c r="V6" t="n">
-        <v>1295.194578526235</v>
+        <v>726.7004387926047</v>
       </c>
       <c r="W6" t="n">
-        <v>1295.194578526235</v>
+        <v>472.4630820644031</v>
       </c>
       <c r="X6" t="n">
-        <v>1087.343078320702</v>
+        <v>264.6115818588702</v>
       </c>
       <c r="Y6" t="n">
-        <v>951.2646192754949</v>
+        <v>264.6115818588702</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>297.2366345253481</v>
+        <v>236.9104562721242</v>
       </c>
       <c r="C7" t="n">
-        <v>297.2366345253481</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="D7" t="n">
-        <v>297.2366345253481</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="E7" t="n">
-        <v>297.2366345253481</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="F7" t="n">
-        <v>150.3466870274377</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="G7" t="n">
-        <v>150.3466870274377</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="H7" t="n">
-        <v>150.3466870274377</v>
+        <v>148.4222061055756</v>
       </c>
       <c r="I7" t="n">
-        <v>32.61949914709663</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="J7" t="n">
-        <v>30.69501822523457</v>
+        <v>30.69501822523431</v>
       </c>
       <c r="K7" t="n">
-        <v>157.432275622327</v>
+        <v>157.4322756223262</v>
       </c>
       <c r="L7" t="n">
-        <v>375.1387655830395</v>
+        <v>375.1387655830379</v>
       </c>
       <c r="M7" t="n">
-        <v>615.0688576388161</v>
+        <v>615.0688576388138</v>
       </c>
       <c r="N7" t="n">
-        <v>854.7285647974836</v>
+        <v>854.7285647974805</v>
       </c>
       <c r="O7" t="n">
-        <v>1060.076798891673</v>
+        <v>1060.07679889167</v>
       </c>
       <c r="P7" t="n">
-        <v>1212.267005934023</v>
+        <v>1212.267005934019</v>
       </c>
       <c r="Q7" t="n">
-        <v>1234.200536495186</v>
+        <v>1234.200536495181</v>
       </c>
       <c r="R7" t="n">
-        <v>1113.866490402743</v>
+        <v>1113.866490402738</v>
       </c>
       <c r="S7" t="n">
-        <v>1113.866490402743</v>
+        <v>910.3578444371271</v>
       </c>
       <c r="T7" t="n">
-        <v>1113.866490402743</v>
+        <v>685.6925863136717</v>
       </c>
       <c r="U7" t="n">
-        <v>1069.327843666213</v>
+        <v>685.6925863136717</v>
       </c>
       <c r="V7" t="n">
-        <v>814.6433554603261</v>
+        <v>685.6925863136717</v>
       </c>
       <c r="W7" t="n">
-        <v>525.2261854233655</v>
+        <v>685.6925863136717</v>
       </c>
       <c r="X7" t="n">
-        <v>297.2366345253481</v>
+        <v>457.7030354156543</v>
       </c>
       <c r="Y7" t="n">
-        <v>297.2366345253481</v>
+        <v>236.9104562721242</v>
       </c>
     </row>
     <row r="8">
@@ -4778,40 +4778,40 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>918.0161179218646</v>
+        <v>970.5047989601117</v>
       </c>
       <c r="C8" t="n">
-        <v>918.0161179218646</v>
+        <v>601.5422820197</v>
       </c>
       <c r="D8" t="n">
-        <v>918.0161179218646</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="E8" t="n">
-        <v>918.0161179218646</v>
+        <v>243.2765834129495</v>
       </c>
       <c r="F8" t="n">
-        <v>507.0302131322571</v>
+        <v>236.331082663746</v>
       </c>
       <c r="G8" t="n">
-        <v>355.3059305704328</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H8" t="n">
-        <v>51.2467865680031</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J8" t="n">
-        <v>187.5281822362817</v>
+        <v>187.5281822362819</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816084</v>
       </c>
       <c r="L8" t="n">
-        <v>795.7553530872917</v>
+        <v>795.755353087291</v>
       </c>
       <c r="M8" t="n">
-        <v>1220.470313923562</v>
+        <v>1220.470313923561</v>
       </c>
       <c r="N8" t="n">
         <v>1656.671415230817</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400155</v>
       </c>
       <c r="S8" t="n">
-        <v>2437.640120926625</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="T8" t="n">
-        <v>2228.89447953245</v>
+        <v>2353.59368700598</v>
       </c>
       <c r="U8" t="n">
-        <v>1975.313418796629</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="V8" t="n">
-        <v>1644.250531453059</v>
+        <v>2100.012626270159</v>
       </c>
       <c r="W8" t="n">
-        <v>1291.481876182944</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="X8" t="n">
-        <v>918.0161179218646</v>
+        <v>1747.243971000045</v>
       </c>
       <c r="Y8" t="n">
-        <v>918.0161179218646</v>
+        <v>1357.104639024233</v>
       </c>
     </row>
     <row r="9">
@@ -4872,31 +4872,31 @@
         <v>302.1446891756896</v>
       </c>
       <c r="G9" t="n">
-        <v>165.443278618252</v>
+        <v>165.4432786182518</v>
       </c>
       <c r="H9" t="n">
-        <v>71.67401812057875</v>
+        <v>71.67401812057899</v>
       </c>
       <c r="I9" t="n">
         <v>51.2467865680031</v>
       </c>
       <c r="J9" t="n">
-        <v>113.5972052500113</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K9" t="n">
-        <v>298.3188265310613</v>
+        <v>684.9695361605189</v>
       </c>
       <c r="L9" t="n">
-        <v>593.0223835625329</v>
+        <v>979.6730931919907</v>
       </c>
       <c r="M9" t="n">
-        <v>956.284402521753</v>
+        <v>1342.935112151211</v>
       </c>
       <c r="N9" t="n">
-        <v>1343.569531118698</v>
+        <v>1730.220240748156</v>
       </c>
       <c r="O9" t="n">
-        <v>1977.748514897737</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P9" t="n">
         <v>2447.023413292609</v>
@@ -4936,22 +4936,22 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>461.9138669598622</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="C10" t="n">
-        <v>292.9776840319553</v>
+        <v>498.0154176992257</v>
       </c>
       <c r="D10" t="n">
-        <v>142.8610446196195</v>
+        <v>347.89877828689</v>
       </c>
       <c r="E10" t="n">
-        <v>142.8610446196195</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="F10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="G10" t="n">
-        <v>51.2467865680031</v>
+        <v>199.9856847044969</v>
       </c>
       <c r="H10" t="n">
         <v>51.2467865680031</v>
@@ -4960,25 +4960,25 @@
         <v>51.2467865680031</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312196</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K10" t="n">
-        <v>248.4064713020475</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L10" t="n">
-        <v>523.6376499693233</v>
+        <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.2194607096585</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O10" t="n">
-        <v>1383.126566999034</v>
+        <v>1383.126566999035</v>
       </c>
       <c r="P10" t="n">
-        <v>1582.113182171023</v>
+        <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
         <v>1636.446120074497</v>
@@ -4987,25 +4987,25 @@
         <v>1636.446120074497</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074497</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074497</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074497</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.76163186861</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="W10" t="n">
-        <v>1092.344461831649</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="X10" t="n">
-        <v>864.354910933632</v>
+        <v>679.6638825294655</v>
       </c>
       <c r="Y10" t="n">
-        <v>643.5623317901019</v>
+        <v>679.6638825294655</v>
       </c>
     </row>
     <row r="11">
@@ -5015,13 +5015,13 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1875.629661109385</v>
+        <v>1485.490329133572</v>
       </c>
       <c r="C11" t="n">
-        <v>1506.667144168973</v>
+        <v>1116.52781219316</v>
       </c>
       <c r="D11" t="n">
-        <v>1195.238779417687</v>
+        <v>1116.52781219316</v>
       </c>
       <c r="E11" t="n">
         <v>809.4505268194423</v>
@@ -5033,58 +5033,58 @@
         <v>394.8347622605878</v>
       </c>
       <c r="H11" t="n">
-        <v>101.9281932309162</v>
+        <v>101.9281932309163</v>
       </c>
       <c r="I11" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J11" t="n">
-        <v>304.406079670689</v>
+        <v>304.4060796706891</v>
       </c>
       <c r="K11" t="n">
         <v>695.1615405656958</v>
       </c>
       <c r="L11" t="n">
-        <v>1216.830004625329</v>
+        <v>1216.83000462533</v>
       </c>
       <c r="M11" t="n">
         <v>1828.956123087831</v>
       </c>
       <c r="N11" t="n">
-        <v>2455.600890484042</v>
+        <v>2455.600890484043</v>
       </c>
       <c r="O11" t="n">
-        <v>3033.988513535296</v>
+        <v>3033.988513535297</v>
       </c>
       <c r="P11" t="n">
         <v>3493.127967479995</v>
       </c>
       <c r="Q11" t="n">
-        <v>3789.749829464062</v>
+        <v>3789.749829464061</v>
       </c>
       <c r="R11" t="n">
-        <v>3876.883295796038</v>
+        <v>3876.883295796036</v>
       </c>
       <c r="S11" t="n">
-        <v>3776.999350345379</v>
+        <v>3776.999350345377</v>
       </c>
       <c r="T11" t="n">
-        <v>3573.020743926743</v>
+        <v>3573.020743926742</v>
       </c>
       <c r="U11" t="n">
-        <v>3319.526802048272</v>
+        <v>3319.52680204827</v>
       </c>
       <c r="V11" t="n">
-        <v>2988.463914704701</v>
+        <v>2988.463914704699</v>
       </c>
       <c r="W11" t="n">
-        <v>2635.695259434587</v>
+        <v>2635.695259434585</v>
       </c>
       <c r="X11" t="n">
-        <v>2262.229501173507</v>
+        <v>2262.229501173505</v>
       </c>
       <c r="Y11" t="n">
-        <v>2262.229501173507</v>
+        <v>1872.090169197693</v>
       </c>
     </row>
     <row r="12">
@@ -5106,40 +5106,40 @@
         <v>458.9274008453847</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3928428722696</v>
+        <v>312.3928428722697</v>
       </c>
       <c r="G12" t="n">
-        <v>176.2740910406009</v>
+        <v>176.274091040601</v>
       </c>
       <c r="H12" t="n">
         <v>88.13208718390851</v>
       </c>
       <c r="I12" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J12" t="n">
-        <v>193.8410919870413</v>
+        <v>193.8410919870412</v>
       </c>
       <c r="K12" t="n">
-        <v>470.7769964046656</v>
+        <v>470.7769964046655</v>
       </c>
       <c r="L12" t="n">
-        <v>889.4740370626173</v>
+        <v>889.4740370626171</v>
       </c>
       <c r="M12" t="n">
-        <v>1397.430603019146</v>
+        <v>1397.430603019145</v>
       </c>
       <c r="N12" t="n">
-        <v>1933.239912720356</v>
+        <v>1532.266717861145</v>
       </c>
       <c r="O12" t="n">
-        <v>2014.935408783255</v>
+        <v>2000.207762193667</v>
       </c>
       <c r="P12" t="n">
-        <v>2371.16628502803</v>
+        <v>2356.438638438442</v>
       </c>
       <c r="Q12" t="n">
-        <v>2559.377995458575</v>
+        <v>2544.650348868987</v>
       </c>
       <c r="R12" t="n">
         <v>2559.377995458575</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>735.4720004261495</v>
+        <v>394.3869424262207</v>
       </c>
       <c r="C13" t="n">
-        <v>566.5358174982426</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="D13" t="n">
-        <v>416.4191780859069</v>
+        <v>225.4507594983139</v>
       </c>
       <c r="E13" t="n">
-        <v>416.4191780859069</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="F13" t="n">
-        <v>269.5292305879966</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="G13" t="n">
-        <v>102.031247399185</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="H13" t="n">
-        <v>102.031247399185</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="I13" t="n">
-        <v>77.53766591592075</v>
+        <v>77.53766591592073</v>
       </c>
       <c r="J13" t="n">
-        <v>136.8552218758648</v>
+        <v>136.8552218758649</v>
       </c>
       <c r="K13" t="n">
-        <v>364.1690246648143</v>
+        <v>364.1690246648145</v>
       </c>
       <c r="L13" t="n">
-        <v>710.5788654344808</v>
+        <v>710.578865434481</v>
       </c>
       <c r="M13" t="n">
         <v>1086.208595376939</v>
@@ -5212,37 +5212,37 @@
         <v>1458.341306336948</v>
       </c>
       <c r="O13" t="n">
-        <v>1786.049800818664</v>
+        <v>1786.049800818665</v>
       </c>
       <c r="P13" t="n">
-        <v>2042.940349010722</v>
+        <v>2042.940349010723</v>
       </c>
       <c r="Q13" t="n">
         <v>2137.362968742808</v>
       </c>
       <c r="R13" t="n">
-        <v>2137.362968742808</v>
+        <v>2056.743466925584</v>
       </c>
       <c r="S13" t="n">
-        <v>1949.247121276104</v>
+        <v>1868.62761945888</v>
       </c>
       <c r="T13" t="n">
-        <v>1728.355788710545</v>
+        <v>1647.73628689332</v>
       </c>
       <c r="U13" t="n">
-        <v>1728.355788710545</v>
+        <v>1358.644593842771</v>
       </c>
       <c r="V13" t="n">
-        <v>1473.671300504658</v>
+        <v>1103.960105636884</v>
       </c>
       <c r="W13" t="n">
-        <v>1184.254130467697</v>
+        <v>814.5429355999231</v>
       </c>
       <c r="X13" t="n">
-        <v>956.2645795696797</v>
+        <v>796.8279863999906</v>
       </c>
       <c r="Y13" t="n">
-        <v>735.4720004261495</v>
+        <v>576.0354072564604</v>
       </c>
     </row>
     <row r="14">
@@ -5285,13 +5285,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5352,31 +5352,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L15" t="n">
-        <v>542.9134462654469</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="M15" t="n">
-        <v>1140.291933891999</v>
+        <v>1026.887310050512</v>
       </c>
       <c r="N15" t="n">
-        <v>1767.889897446606</v>
+        <v>1540.888753373307</v>
       </c>
       <c r="O15" t="n">
-        <v>2319.799627685893</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P15" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1016.580456911437</v>
+        <v>513.8536007400714</v>
       </c>
       <c r="C16" t="n">
-        <v>847.6442739835331</v>
+        <v>390.823249958218</v>
       </c>
       <c r="D16" t="n">
-        <v>697.5276345711974</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="E16" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F16" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G16" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5437,10 +5437,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5458,28 +5458,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U16" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V16" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W16" t="n">
-        <v>1647.011051783225</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>1419.021500885207</v>
+        <v>916.2946447138413</v>
       </c>
       <c r="Y16" t="n">
-        <v>1198.228921741677</v>
+        <v>695.5020655703112</v>
       </c>
     </row>
     <row r="17">
@@ -5504,31 +5504,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>577.3880777468471</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>949.9304447718133</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>696.708435085167</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="C19" t="n">
-        <v>696.708435085167</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D19" t="n">
-        <v>546.5917956728313</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
         <v>93.81666304797187</v>
@@ -5674,10 +5674,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5698,25 +5698,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1327.139029956954</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1099.149479058937</v>
+        <v>916.294644713841</v>
       </c>
       <c r="Y19" t="n">
-        <v>878.3568999154068</v>
+        <v>720.3848083708508</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192639</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075815</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332388</v>
@@ -5765,34 +5765,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
         <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>923.0670414349511</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1520.445529061503</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N21" t="n">
-        <v>1577.52840832642</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O21" t="n">
-        <v>2129.438138565707</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="Q21" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.853600740071</v>
+        <v>513.8536007400758</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121641</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D22" t="n">
-        <v>344.917417812164</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E22" t="n">
-        <v>197.0043242297709</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F22" t="n">
-        <v>197.0043242297709</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038379</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797781</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910813</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570821</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279806</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853365</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580265</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832667</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487572</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510513</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854711</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.701365648824</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611863</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138409</v>
+        <v>916.2946447138456</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703107</v>
+        <v>695.5020655703155</v>
       </c>
     </row>
     <row r="23">
@@ -6069,25 +6069,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797187</v>
+        <v>214.9229991561138</v>
       </c>
       <c r="L24" t="n">
-        <v>589.1422692637306</v>
+        <v>710.2486053718725</v>
       </c>
       <c r="M24" t="n">
-        <v>716.6687843969308</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N24" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>983.3556038098233</v>
+        <v>513.853600740071</v>
       </c>
       <c r="C25" t="n">
-        <v>814.4194208819164</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="D25" t="n">
-        <v>664.3027814695806</v>
+        <v>388.6197041282754</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408905</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6148,10 +6148,10 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
@@ -6163,34 +6163,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q25" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832662</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>2157.887856924458</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1903.203368718571</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1613.78619868161</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1385.796647783593</v>
+        <v>916.2946447138409</v>
       </c>
       <c r="Y25" t="n">
-        <v>1165.004068640063</v>
+        <v>695.5020655703107</v>
       </c>
     </row>
     <row r="26">
@@ -6203,70 +6203,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168615</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6288,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>634.5603720565524</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1231.938859683104</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O27" t="n">
         <v>1859.536823237711</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>727.9786782557277</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>559.0424953278208</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>408.925855915485</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F28" t="n">
-        <v>261.0127623330919</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235166</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258107</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1902.510931370362</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1647.826443164475</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1358.409273127515</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1130.419722229497</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>909.6271430859674</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6440,70 +6440,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I29" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,31 +6534,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J30" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>95.58405025273903</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>95.58405025273903</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>680.0291294438176</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>1964.511902868375</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q30" t="n">
         <v>2516.421633107662</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1016.58045691144</v>
+        <v>513.8536007400713</v>
       </c>
       <c r="C31" t="n">
-        <v>847.6442739835329</v>
+        <v>344.9174178121644</v>
       </c>
       <c r="D31" t="n">
-        <v>697.5276345711972</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E31" t="n">
-        <v>549.614540988804</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
@@ -6643,28 +6643,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1419.02150088521</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1198.228921741679</v>
+        <v>695.5020655703111</v>
       </c>
     </row>
     <row r="32">
@@ -6674,13 +6674,13 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
         <v>1204.759558406469</v>
@@ -6692,58 +6692,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6762,7 +6762,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>923.0670414349513</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1550.665004989558</v>
       </c>
       <c r="O33" t="n">
-        <v>2297.690135143765</v>
+        <v>2102.574735228845</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>950.7540666811332</v>
+        <v>513.8536007400716</v>
       </c>
       <c r="C34" t="n">
-        <v>781.8178837532263</v>
+        <v>344.9174178121646</v>
       </c>
       <c r="D34" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408905</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429801</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038342</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1977.461080510507</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1870.601831589881</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1581.18466155292</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1353.195110654903</v>
+        <v>916.2946447138416</v>
       </c>
       <c r="Y34" t="n">
-        <v>1132.402531511373</v>
+        <v>695.5020655703113</v>
       </c>
     </row>
     <row r="35">
@@ -6929,16 +6929,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.192580311171</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6953,31 +6953,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876689</v>
       </c>
       <c r="C37" t="n">
-        <v>779.6143379232836</v>
+        <v>411.963121559762</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232836</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408905</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429802</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
@@ -7108,37 +7108,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S37" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T37" t="n">
-        <v>2227.361618603201</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U37" t="n">
-        <v>1941.434309135586</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V37" t="n">
-        <v>1686.749820929699</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W37" t="n">
-        <v>1397.332650892738</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X37" t="n">
-        <v>1169.343099994721</v>
+        <v>983.3403484614388</v>
       </c>
       <c r="Y37" t="n">
-        <v>948.5505208511906</v>
+        <v>762.5477693179087</v>
       </c>
     </row>
     <row r="38">
@@ -7163,25 +7163,25 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
         <v>2950.898526355937</v>
@@ -7248,28 +7248,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>1366.386875345992</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1918.296605585279</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>948.5505208511904</v>
+        <v>513.8536007400719</v>
       </c>
       <c r="C40" t="n">
-        <v>779.6143379232836</v>
+        <v>344.917417812165</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232836</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998293</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782953</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038339</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L40" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2342.684238942883</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2123.082773965825</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>2123.082773965825</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1868.398285759938</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1578.981115722978</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>1350.99156482496</v>
+        <v>916.2946447138418</v>
       </c>
       <c r="Y40" t="n">
-        <v>1130.19898568143</v>
+        <v>695.5020655703116</v>
       </c>
     </row>
     <row r="41">
@@ -7388,13 +7388,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F41" t="n">
         <v>793.7736536168611</v>
@@ -7403,55 +7403,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075804</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R41" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7473,7 +7473,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F42" t="n">
         <v>314.2396613568978</v>
@@ -7482,25 +7482,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O42" t="n">
         <v>1859.536823237711</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C43" t="n">
-        <v>929.7309773356196</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038344</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797746</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
@@ -7585,34 +7585,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832662</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510507</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1977.461080510507</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1722.77659230462</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X43" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y43" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="44">
@@ -7646,19 +7646,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111706</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075799</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7667,7 +7667,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
@@ -7685,10 +7685,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7722,31 +7722,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>710.248605371872</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,37 +7780,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>808.8888553856856</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C46" t="n">
-        <v>639.9526724577787</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D46" t="n">
-        <v>489.836033045443</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038341</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797742</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7822,34 +7822,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2264.108249235164</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T46" t="n">
-        <v>2044.506784258105</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U46" t="n">
-        <v>1755.431557602303</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V46" t="n">
-        <v>1500.747069396416</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W46" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X46" t="n">
-        <v>1211.329899359456</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y46" t="n">
-        <v>990.5373202159253</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
   </sheetData>
@@ -8000,7 +8000,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>60.51967546761151</v>
+        <v>60.51967546761153</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -8055,7 +8055,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J3" t="n">
-        <v>2.051220519418237</v>
+        <v>2.051220519418266</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>97.32166909127244</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>97.32166909127237</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8237,7 +8237,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>34.43939438636983</v>
+        <v>34.43939438637054</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>21.56058953000844</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,7 +8304,7 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>21.56058953000479</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
@@ -8529,10 +8529,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>305.1601501039158</v>
+        <v>138.9393975111051</v>
       </c>
       <c r="P9" t="n">
-        <v>224.3355197601771</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154991</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -10595,7 +10595,7 @@
         <v>0</v>
       </c>
       <c r="N35" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -23261,10 +23261,10 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>46.3689605169086</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>77.92385755228082</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.8230033569236</v>
       </c>
       <c r="H13" t="n">
         <v>142.9518949665179</v>
       </c>
       <c r="I13" t="n">
-        <v>66.00487823084208</v>
+        <v>90.25352389927374</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,7 +23461,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>79.81330679905237</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2007761200435</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23479,7 +23479,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>208.1718556811039</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>45.4467738245929</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465698</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23704,7 +23704,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23713,7 +23713,7 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>280.2941372823637</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23896,16 +23896,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.005432486451156</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>24.63391537253457</v>
       </c>
     </row>
     <row r="20">
@@ -24127,10 +24127,10 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>46.45968844822656</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24139,13 +24139,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>144.6341900408534</v>
+        <v>165.5241382922689</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24364,25 +24364,25 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>43.26526345295012</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>114.158440889166</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,13 +24409,13 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24604,7 +24604,7 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24613,13 +24613,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,7 +24646,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>145.6085800303772</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24841,22 +24841,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>46.45968844823099</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24898,10 +24898,10 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>205.6146855104959</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
         <v>0</v>
@@ -25078,19 +25078,19 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>146.8157004124959</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -25129,10 +25129,10 @@
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>146.3469868924079</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25309,28 +25309,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>145.6085800303782</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,16 +25357,16 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>3.116438016304585</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25552,22 +25552,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>65.54986409393004</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,13 +25597,13 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>144.1654765207636</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25786,7 +25786,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>46.45968844823058</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229313</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25840,16 +25840,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>67.07129414994027</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,25 +26023,25 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>43.26526345294942</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>141.459473806131</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>888256.2526044607</v>
+        <v>888256.2526044605</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>977725.0791031923</v>
+        <v>977725.0791031924</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031922</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="12">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031923</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>977725.0791031924</v>
+        <v>977725.0791031922</v>
       </c>
     </row>
   </sheetData>
@@ -26311,37 +26311,37 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>451572.9734253556</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="C2" t="n">
-        <v>451572.973425356</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="D2" t="n">
-        <v>451572.9734253559</v>
+        <v>451572.9734253557</v>
       </c>
       <c r="E2" t="n">
         <v>402924.0843509178</v>
       </c>
       <c r="F2" t="n">
-        <v>443930.6298295036</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="G2" t="n">
-        <v>443930.6298295033</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="H2" t="n">
-        <v>443930.6298295031</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="I2" t="n">
-        <v>443930.6298295035</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="J2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="K2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="L2" t="n">
-        <v>443930.6298295032</v>
+        <v>443930.6298295034</v>
       </c>
       <c r="M2" t="n">
         <v>443930.6298295034</v>
@@ -26363,43 +26363,43 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>680087.9805911932</v>
+        <v>680087.9805911931</v>
       </c>
       <c r="C3" t="n">
-        <v>132804.2190657081</v>
+        <v>132804.2190657047</v>
       </c>
       <c r="D3" t="n">
-        <v>265413.0723929364</v>
+        <v>265413.07239294</v>
       </c>
       <c r="E3" t="n">
-        <v>313577.1573545777</v>
+        <v>313577.1573545772</v>
       </c>
       <c r="F3" t="n">
-        <v>189308.2687704286</v>
+        <v>189308.2687704289</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911409</v>
+        <v>68999.1544191143</v>
       </c>
       <c r="K3" t="n">
-        <v>30877.4292641745</v>
+        <v>30877.42926417365</v>
       </c>
       <c r="L3" t="n">
-        <v>65018.34502049531</v>
+        <v>65018.34502049621</v>
       </c>
       <c r="M3" t="n">
-        <v>81897.40371273094</v>
+        <v>81897.4037127308</v>
       </c>
       <c r="N3" t="n">
-        <v>49839.57413202355</v>
+        <v>49839.57413202358</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -26418,7 +26418,7 @@
         <v>249437.9663307044</v>
       </c>
       <c r="C4" t="n">
-        <v>213528.7967230441</v>
+        <v>213528.7967230451</v>
       </c>
       <c r="D4" t="n">
         <v>137930.4104072219</v>
@@ -26427,34 +26427,34 @@
         <v>9841.725762122358</v>
       </c>
       <c r="F4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.14432176889</v>
       </c>
       <c r="G4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="H4" t="n">
-        <v>9947.144321768897</v>
+        <v>9947.144321768916</v>
       </c>
       <c r="I4" t="n">
         <v>9947.144321768897</v>
       </c>
       <c r="J4" t="n">
-        <v>9947.144321768912</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="K4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.14432176887</v>
       </c>
       <c r="L4" t="n">
-        <v>9947.144321768956</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="M4" t="n">
-        <v>9947.144321768908</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="N4" t="n">
-        <v>9947.144321768921</v>
+        <v>9947.144321768897</v>
       </c>
       <c r="O4" t="n">
-        <v>9947.14432176891</v>
+        <v>9947.144321768857</v>
       </c>
       <c r="P4" t="n">
         <v>9947.144321768897</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.8032042662</v>
+        <v>63047.80320426619</v>
       </c>
       <c r="C5" t="n">
-        <v>72593.65038667503</v>
+        <v>72593.65038667477</v>
       </c>
       <c r="D5" t="n">
         <v>92937.7724398447</v>
       </c>
       <c r="E5" t="n">
-        <v>85137.48506738569</v>
+        <v>85137.48506738566</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-541000.7767008082</v>
+        <v>-541000.776700808</v>
       </c>
       <c r="C6" t="n">
-        <v>32646.30724992871</v>
+        <v>32646.3072499313</v>
       </c>
       <c r="D6" t="n">
-        <v>-44708.28181464723</v>
+        <v>-44708.28181465087</v>
       </c>
       <c r="E6" t="n">
-        <v>-5632.283833167879</v>
+        <v>-5853.415147142161</v>
       </c>
       <c r="F6" t="n">
-        <v>143552.686913399</v>
+        <v>143517.9489879627</v>
       </c>
       <c r="G6" t="n">
-        <v>332860.9556838273</v>
+        <v>332826.2177583916</v>
       </c>
       <c r="H6" t="n">
-        <v>332860.9556838271</v>
+        <v>332826.2177583915</v>
       </c>
       <c r="I6" t="n">
-        <v>332860.9556838275</v>
+        <v>332826.2177583919</v>
       </c>
       <c r="J6" t="n">
-        <v>263861.8012647131</v>
+        <v>263827.0633392775</v>
       </c>
       <c r="K6" t="n">
-        <v>301983.5264196527</v>
+        <v>301948.788494218</v>
       </c>
       <c r="L6" t="n">
-        <v>267842.6106633319</v>
+        <v>267807.8727378955</v>
       </c>
       <c r="M6" t="n">
-        <v>250963.5519710964</v>
+        <v>250928.814045661</v>
       </c>
       <c r="N6" t="n">
-        <v>283021.3815518037</v>
+        <v>282986.643626368</v>
       </c>
       <c r="O6" t="n">
-        <v>332860.9556838273</v>
+        <v>332826.2177583918</v>
       </c>
       <c r="P6" t="n">
-        <v>332860.9556838273</v>
+        <v>332826.2177583917</v>
       </c>
     </row>
   </sheetData>
@@ -26735,16 +26735,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>717.3319511695757</v>
+        <v>717.331951169573</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175391</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
-        <v>1202.241237214951</v>
+        <v>1202.24123721495</v>
       </c>
       <c r="F3" t="n">
         <v>1367.975500341674</v>
@@ -26787,16 +26787,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>383.6877278154321</v>
+        <v>383.6877278154288</v>
       </c>
       <c r="D4" t="n">
         <v>640.5848321000387</v>
       </c>
       <c r="E4" t="n">
-        <v>969.2208239490094</v>
+        <v>969.2208239490091</v>
       </c>
       <c r="F4" t="n">
         <v>1172.708288099648</v>
@@ -26805,28 +26805,28 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="O4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="P4" t="n">
         <v>1172.708288099648</v>
@@ -26957,31 +26957,31 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>614.0550137694784</v>
+        <v>614.0550137694783</v>
       </c>
       <c r="C3" t="n">
-        <v>103.2769374000974</v>
+        <v>103.2769374000948</v>
       </c>
       <c r="D3" t="n">
-        <v>216.7329409479634</v>
+        <v>216.7329409479663</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1763450974115</v>
+        <v>268.1763450974111</v>
       </c>
       <c r="F3" t="n">
-        <v>165.7342631267231</v>
+        <v>165.7342631267234</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27009,19 +27009,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="C4" t="n">
-        <v>119.973847813926</v>
+        <v>119.9738478139227</v>
       </c>
       <c r="D4" t="n">
-        <v>256.8971042846066</v>
+        <v>256.8971042846099</v>
       </c>
       <c r="E4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="F4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27033,19 +27033,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015064</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813926</v>
+        <v>119.9738478139227</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846064</v>
+        <v>256.8971042846099</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489709</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506391</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27255,19 +27255,19 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015062</v>
+        <v>263.7138800015061</v>
       </c>
       <c r="K4" t="n">
-        <v>119.973847813926</v>
+        <v>119.9738478139227</v>
       </c>
       <c r="L4" t="n">
-        <v>256.8971042846066</v>
+        <v>256.8971042846099</v>
       </c>
       <c r="M4" t="n">
-        <v>328.6359918489707</v>
+        <v>328.6359918489703</v>
       </c>
       <c r="N4" t="n">
-        <v>203.487464150639</v>
+        <v>203.4874641506393</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27391,7 +27391,7 @@
         <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>149.1202946442038</v>
+        <v>400</v>
       </c>
       <c r="H2" t="n">
         <v>314.193632629268</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>64.03837846862876</v>
       </c>
       <c r="W2" t="n">
-        <v>85.52708871590681</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>160.8347988924386</v>
+        <v>313.8709546141471</v>
       </c>
     </row>
     <row r="3">
@@ -27455,28 +27455,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>156.0465223954742</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>99.47932027120976</v>
       </c>
       <c r="I3" t="n">
-        <v>43.92180400150558</v>
+        <v>43.9218040015056</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27503,19 +27503,19 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>31.28950217406978</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>251.6949831609196</v>
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27555,10 +27555,10 @@
         <v>152.3821593358568</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>122.1505735248085</v>
       </c>
       <c r="J4" t="n">
-        <v>15.07219909888208</v>
+        <v>15.07219909888209</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27591,16 +27591,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117134</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>168.3072357573317</v>
+        <v>208.769076415865</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
         <v>218.5846533520948</v>
@@ -27616,25 +27616,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>48.71629508123692</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>327.5233746021691</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>23.18831792628259</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>28.73126316233778</v>
-      </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>309.9416328899766</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>99.30025118863719</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>143.3066953660374</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>210.4722490968155</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>2.550210840621446</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,28 +27692,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>61.86825919804164</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>97.33388804333231</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>36.27346476951745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27743,25 +27743,25 @@
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>143.0237294698458</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>193.9455960238325</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8398728426018</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>70.96502132254949</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -27774,7 +27774,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>79.64345343374467</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -27783,19 +27783,19 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.6974299383169</v>
       </c>
       <c r="H7" t="n">
-        <v>150.7263422083601</v>
+        <v>150.7263422083602</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>1.905236112643777</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27822,25 +27822,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>201.4735595059546</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>222.4186055422208</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>242.1552118462276</v>
+        <v>286.2484721153922</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,28 +27850,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>261.340663036748</v>
+        <v>294.024162310639</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247049</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27901,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>54.72293255183097</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
-        <v>147.2515091551289</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>104.7965952039006</v>
@@ -28059,25 +28059,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>6.561538634396328</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28384,7 +28384,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.276139040289943e-13</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28485,7 +28485,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>2.706357804527215e-12</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -28864,7 +28864,7 @@
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>-5.450950574782491e-13</v>
       </c>
       <c r="Y20" t="n">
         <v>0</v>
@@ -28983,7 +28983,7 @@
         <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>4.09100363013391e-12</v>
       </c>
       <c r="L22" t="n">
         <v>0</v>
@@ -29472,7 +29472,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>1.023181539494544e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29515,7 +29515,7 @@
         <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -29755,7 +29755,7 @@
         <v>0</v>
       </c>
       <c r="E32" t="n">
-        <v>1.307398633798584e-12</v>
+        <v>0</v>
       </c>
       <c r="F32" t="n">
         <v>0</v>
@@ -30226,7 +30226,7 @@
         <v>0</v>
       </c>
       <c r="D38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="E38" t="n">
         <v>0</v>
@@ -30457,7 +30457,7 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
         <v>0</v>
@@ -31039,31 +31039,31 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.468562869425037</v>
+        <v>2.468562869425036</v>
       </c>
       <c r="H2" t="n">
         <v>25.28116948649916</v>
       </c>
       <c r="I2" t="n">
-        <v>95.16927002350883</v>
+        <v>95.1692700235088</v>
       </c>
       <c r="J2" t="n">
         <v>209.5161878388634</v>
       </c>
       <c r="K2" t="n">
-        <v>314.0104541016253</v>
+        <v>314.0104541016252</v>
       </c>
       <c r="L2" t="n">
         <v>389.5577350167918</v>
       </c>
       <c r="M2" t="n">
-        <v>433.4580399459293</v>
+        <v>433.4580399459292</v>
       </c>
       <c r="N2" t="n">
-        <v>440.4718441986832</v>
+        <v>440.4718441986831</v>
       </c>
       <c r="O2" t="n">
-        <v>415.925072165838</v>
+        <v>415.9250721658379</v>
       </c>
       <c r="P2" t="n">
         <v>354.9824263269073</v>
@@ -31075,7 +31075,7 @@
         <v>155.0658623465206</v>
       </c>
       <c r="S2" t="n">
-        <v>56.25237638702308</v>
+        <v>56.25237638702307</v>
       </c>
       <c r="T2" t="n">
         <v>10.8061339609081</v>
@@ -31124,16 +31124,16 @@
         <v>12.75612396528671</v>
       </c>
       <c r="I3" t="n">
-        <v>45.47482884990949</v>
+        <v>45.47482884990948</v>
       </c>
       <c r="J3" t="n">
-        <v>124.7864061472485</v>
+        <v>124.7864061472484</v>
       </c>
       <c r="K3" t="n">
         <v>213.2798437919895</v>
       </c>
       <c r="L3" t="n">
-        <v>286.7810703458305</v>
+        <v>286.7810703458304</v>
       </c>
       <c r="M3" t="n">
         <v>334.6599825043656</v>
@@ -31142,25 +31142,25 @@
         <v>343.517436429399</v>
       </c>
       <c r="O3" t="n">
-        <v>314.2513427542726</v>
+        <v>314.2513427542725</v>
       </c>
       <c r="P3" t="n">
-        <v>252.2144074480713</v>
+        <v>252.2144074480712</v>
       </c>
       <c r="Q3" t="n">
         <v>168.5986520825179</v>
       </c>
       <c r="R3" t="n">
-        <v>82.00530919736546</v>
+        <v>82.00530919736545</v>
       </c>
       <c r="S3" t="n">
         <v>24.53323569163905</v>
       </c>
       <c r="T3" t="n">
-        <v>5.323741109944815</v>
+        <v>5.323741109944814</v>
       </c>
       <c r="U3" t="n">
-        <v>0.08689457742020924</v>
+        <v>0.08689457742020923</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31200,16 +31200,16 @@
         <v>1.107312319912174</v>
       </c>
       <c r="H4" t="n">
-        <v>9.84501317158279</v>
+        <v>9.845013171582789</v>
       </c>
       <c r="I4" t="n">
         <v>33.29990140244975</v>
       </c>
       <c r="J4" t="n">
-        <v>78.28698101779069</v>
+        <v>78.28698101779068</v>
       </c>
       <c r="K4" t="n">
-        <v>128.6495586225235</v>
+        <v>128.6495586225234</v>
       </c>
       <c r="L4" t="n">
         <v>164.6271425440336</v>
@@ -31221,25 +31221,25 @@
         <v>169.4489843734694</v>
       </c>
       <c r="O4" t="n">
-        <v>156.5135631817681</v>
+        <v>156.513563181768</v>
       </c>
       <c r="P4" t="n">
         <v>133.9243918555596</v>
       </c>
       <c r="Q4" t="n">
-        <v>92.72230707919122</v>
+        <v>92.72230707919121</v>
       </c>
       <c r="R4" t="n">
-        <v>49.78878849350556</v>
+        <v>49.78878849350555</v>
       </c>
       <c r="S4" t="n">
-        <v>19.29743379337852</v>
+        <v>19.29743379337851</v>
       </c>
       <c r="T4" t="n">
-        <v>4.731243548715652</v>
+        <v>4.731243548715651</v>
       </c>
       <c r="U4" t="n">
-        <v>0.06039885381339138</v>
+        <v>0.06039885381339136</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31276,49 +31276,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>2.883746537365127</v>
+        <v>2.883746537365115</v>
       </c>
       <c r="H5" t="n">
-        <v>29.53316922579061</v>
+        <v>29.53316922579049</v>
       </c>
       <c r="I5" t="n">
-        <v>111.1756383817691</v>
+        <v>111.1756383817687</v>
       </c>
       <c r="J5" t="n">
-        <v>244.7543826756936</v>
+        <v>244.7543826756927</v>
       </c>
       <c r="K5" t="n">
-        <v>366.8233736023595</v>
+        <v>366.8233736023581</v>
       </c>
       <c r="L5" t="n">
-        <v>455.0768316952476</v>
+        <v>455.0768316952459</v>
       </c>
       <c r="M5" t="n">
-        <v>506.3606591791146</v>
+        <v>506.3606591791127</v>
       </c>
       <c r="N5" t="n">
-        <v>514.5541040284033</v>
+        <v>514.5541040284014</v>
       </c>
       <c r="O5" t="n">
-        <v>485.8788493974788</v>
+        <v>485.878849397477</v>
       </c>
       <c r="P5" t="n">
-        <v>414.6863567562772</v>
+        <v>414.6863567562756</v>
       </c>
       <c r="Q5" t="n">
-        <v>311.4121838868885</v>
+        <v>311.4121838868873</v>
       </c>
       <c r="R5" t="n">
-        <v>181.1461434277623</v>
+        <v>181.1461434277616</v>
       </c>
       <c r="S5" t="n">
-        <v>65.71337422020788</v>
+        <v>65.71337422020764</v>
       </c>
       <c r="T5" t="n">
-        <v>12.62360046731585</v>
+        <v>12.6236004673158</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2306997229892101</v>
+        <v>0.2306997229892092</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.542940423270408</v>
+        <v>1.542940423270402</v>
       </c>
       <c r="H6" t="n">
-        <v>14.90155619316421</v>
+        <v>14.90155619316415</v>
       </c>
       <c r="I6" t="n">
-        <v>53.12316808189784</v>
+        <v>53.12316808189763</v>
       </c>
       <c r="J6" t="n">
-        <v>145.7740335862626</v>
+        <v>145.774033586262</v>
       </c>
       <c r="K6" t="n">
-        <v>249.1510419453799</v>
+        <v>249.151041945379</v>
       </c>
       <c r="L6" t="n">
-        <v>335.0143230438665</v>
+        <v>335.0143230438653</v>
       </c>
       <c r="M6" t="n">
-        <v>390.9459133874187</v>
+        <v>390.9459133874172</v>
       </c>
       <c r="N6" t="n">
-        <v>401.293088418912</v>
+        <v>401.2930884189105</v>
       </c>
       <c r="O6" t="n">
-        <v>367.1047769348677</v>
+        <v>367.1047769348663</v>
       </c>
       <c r="P6" t="n">
-        <v>294.6339480190659</v>
+        <v>294.6339480190649</v>
       </c>
       <c r="Q6" t="n">
-        <v>196.954991573956</v>
+        <v>196.9549915739553</v>
       </c>
       <c r="R6" t="n">
-        <v>95.79765189392941</v>
+        <v>95.79765189392906</v>
       </c>
       <c r="S6" t="n">
-        <v>28.65944163399199</v>
+        <v>28.65944163399189</v>
       </c>
       <c r="T6" t="n">
-        <v>6.219132670989056</v>
+        <v>6.219132670989032</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1015092383730532</v>
+        <v>0.1015092383730528</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.293549420141858</v>
+        <v>1.293549420141853</v>
       </c>
       <c r="H7" t="n">
-        <v>11.50083029907943</v>
+        <v>11.50083029907939</v>
       </c>
       <c r="I7" t="n">
-        <v>38.90055892572061</v>
+        <v>38.90055892572046</v>
       </c>
       <c r="J7" t="n">
-        <v>91.45394400402934</v>
+        <v>91.453944004029</v>
       </c>
       <c r="K7" t="n">
-        <v>150.2869235401176</v>
+        <v>150.286923540117</v>
       </c>
       <c r="L7" t="n">
-        <v>192.315520154545</v>
+        <v>192.3155201545442</v>
       </c>
       <c r="M7" t="n">
-        <v>202.7697513773277</v>
+        <v>202.769751377327</v>
       </c>
       <c r="N7" t="n">
-        <v>197.9483399022537</v>
+        <v>197.9483399022529</v>
       </c>
       <c r="O7" t="n">
-        <v>182.8373307669601</v>
+        <v>182.8373307669594</v>
       </c>
       <c r="P7" t="n">
-        <v>156.4489225960661</v>
+        <v>156.4489225960655</v>
       </c>
       <c r="Q7" t="n">
-        <v>108.3171246266059</v>
+        <v>108.3171246266055</v>
       </c>
       <c r="R7" t="n">
-        <v>58.16268574565115</v>
+        <v>58.16268574565093</v>
       </c>
       <c r="S7" t="n">
-        <v>22.54303853101764</v>
+        <v>22.54303853101755</v>
       </c>
       <c r="T7" t="n">
-        <v>5.526983886060663</v>
+        <v>5.526983886060642</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07055724109864688</v>
+        <v>0.0705572410986466</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31513,46 +31513,46 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.755034742181059</v>
+        <v>3.75503474218106</v>
       </c>
       <c r="H8" t="n">
-        <v>38.45624955336178</v>
+        <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
         <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
-        <v>318.7038799491899</v>
+        <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857142</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
-        <v>592.5726450767379</v>
+        <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730003</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342223</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
-        <v>632.6811099166594</v>
+        <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190644</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.5015080147051</v>
+        <v>405.5015080147052</v>
       </c>
       <c r="R8" t="n">
-        <v>235.8772011235311</v>
+        <v>235.8772011235312</v>
       </c>
       <c r="S8" t="n">
-        <v>85.56785418745096</v>
+        <v>85.56785418745099</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43766458389759</v>
+        <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
         <v>0.3004027793744847</v>
@@ -31595,10 +31595,10 @@
         <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
-        <v>19.4038763438002</v>
+        <v>19.40387634380021</v>
       </c>
       <c r="I9" t="n">
-        <v>69.17367361436493</v>
+        <v>69.17367361436496</v>
       </c>
       <c r="J9" t="n">
         <v>189.8178475575841</v>
@@ -31607,34 +31607,34 @@
         <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177243</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
-        <v>509.0653662040588</v>
+        <v>509.0653662040589</v>
       </c>
       <c r="N9" t="n">
-        <v>522.5388116762072</v>
+        <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405674</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
-        <v>383.6539365378625</v>
+        <v>383.6539365378626</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.462496416876</v>
+        <v>256.4624964168761</v>
       </c>
       <c r="R9" t="n">
-        <v>124.741722762414</v>
+        <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997901</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000171</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1321789941675763</v>
+        <v>0.1321789941675764</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31677,7 +31677,7 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.6538797233577</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
@@ -31692,10 +31692,10 @@
         <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
-        <v>257.7559726067958</v>
+        <v>257.7559726067959</v>
       </c>
       <c r="O10" t="n">
-        <v>238.0793597154672</v>
+        <v>238.0793597154673</v>
       </c>
       <c r="P10" t="n">
         <v>203.7180217169137</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759585</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
-        <v>29.35413767523478</v>
+        <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069561</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024984</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31753,34 +31753,34 @@
         <v>4.833130601869144</v>
       </c>
       <c r="H11" t="n">
-        <v>49.49729877639239</v>
+        <v>49.49729877639238</v>
       </c>
       <c r="I11" t="n">
-        <v>186.3292675285604</v>
+        <v>186.3292675285603</v>
       </c>
       <c r="J11" t="n">
-        <v>410.2059184203917</v>
+        <v>410.2059184203916</v>
       </c>
       <c r="K11" t="n">
-        <v>614.7923367975127</v>
+        <v>614.7923367975126</v>
       </c>
       <c r="L11" t="n">
-        <v>762.7042574544657</v>
+        <v>762.7042574544655</v>
       </c>
       <c r="M11" t="n">
-        <v>848.655443795456</v>
+        <v>848.6554437954559</v>
       </c>
       <c r="N11" t="n">
-        <v>862.3875761180168</v>
+        <v>862.3875761180167</v>
       </c>
       <c r="O11" t="n">
-        <v>814.3281336956804</v>
+        <v>814.3281336956803</v>
       </c>
       <c r="P11" t="n">
-        <v>695.0102219620359</v>
+        <v>695.0102219620358</v>
       </c>
       <c r="Q11" t="n">
-        <v>521.9237322825969</v>
+        <v>521.9237322825968</v>
       </c>
       <c r="R11" t="n">
         <v>303.5991401696629</v>
@@ -31792,7 +31792,7 @@
         <v>21.15702920968219</v>
       </c>
       <c r="U11" t="n">
-        <v>0.3866504481495315</v>
+        <v>0.3866504481495314</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31835,34 +31835,34 @@
         <v>24.97486041837096</v>
       </c>
       <c r="I12" t="n">
-        <v>89.03390294469212</v>
+        <v>89.03390294469209</v>
       </c>
       <c r="J12" t="n">
         <v>244.3158348193137</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5746757598381</v>
+        <v>417.574675759838</v>
       </c>
       <c r="L12" t="n">
-        <v>561.4806834747749</v>
+        <v>561.4806834747748</v>
       </c>
       <c r="M12" t="n">
-        <v>655.2214742821481</v>
+        <v>655.2214742821478</v>
       </c>
       <c r="N12" t="n">
-        <v>672.5632370340505</v>
+        <v>267.5398078833327</v>
       </c>
       <c r="O12" t="n">
-        <v>225.1169475382824</v>
+        <v>615.2639659924473</v>
       </c>
       <c r="P12" t="n">
-        <v>493.8035753383446</v>
+        <v>493.8035753383445</v>
       </c>
       <c r="Q12" t="n">
-        <v>330.094612904754</v>
+        <v>330.0946129047539</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>160.5559146605174</v>
       </c>
       <c r="S12" t="n">
         <v>48.03293999627653</v>
@@ -31908,46 +31908,46 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.167976001535157</v>
+        <v>2.167976001535156</v>
       </c>
       <c r="H13" t="n">
-        <v>19.27527754092168</v>
+        <v>19.27527754092167</v>
       </c>
       <c r="I13" t="n">
-        <v>65.19695102798455</v>
+        <v>65.19695102798454</v>
       </c>
       <c r="J13" t="n">
-        <v>153.2759033085356</v>
+        <v>153.2759033085355</v>
       </c>
       <c r="K13" t="n">
-        <v>251.8793936329027</v>
+        <v>251.8793936329026</v>
       </c>
       <c r="L13" t="n">
-        <v>322.3189048100542</v>
+        <v>322.3189048100541</v>
       </c>
       <c r="M13" t="n">
-        <v>339.8400926770064</v>
+        <v>339.8400926770063</v>
       </c>
       <c r="N13" t="n">
-        <v>331.7594548531029</v>
+        <v>331.7594548531028</v>
       </c>
       <c r="O13" t="n">
-        <v>306.4335533806239</v>
+        <v>306.4335533806238</v>
       </c>
       <c r="P13" t="n">
-        <v>262.2068429493065</v>
+        <v>262.2068429493064</v>
       </c>
       <c r="Q13" t="n">
         <v>181.5384268194575</v>
       </c>
       <c r="R13" t="n">
-        <v>97.48008457811711</v>
+        <v>97.48008457811709</v>
       </c>
       <c r="S13" t="n">
-        <v>37.7819090449354</v>
+        <v>37.78190904493539</v>
       </c>
       <c r="T13" t="n">
-        <v>9.263170188377485</v>
+        <v>9.263170188377483</v>
       </c>
       <c r="U13" t="n">
         <v>0.1182532364473723</v>
@@ -32072,34 +32072,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>441.0292693655512</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>650.5350891770659</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,7 +32309,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
@@ -32318,13 +32318,13 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>518.439455159358</v>
+        <v>377.6350660745956</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>189.0011860883002</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>140.7358547888808</v>
       </c>
       <c r="R21" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32789,16 +32789,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>260.1710714068256</v>
       </c>
       <c r="L24" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>270.9486956727256</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
         <v>700.0808204437243</v>
@@ -32810,7 +32810,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>533.6019216797993</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>428.7353800421384</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>391.925066926462</v>
+        <v>316.3837382263848</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,10 +33725,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33737,37 +33737,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>539.5330155967679</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>320.9147064709962</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>423.9151577118737</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34696,28 +34696,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>28.47028331217712</v>
+        <v>28.47028331217709</v>
       </c>
       <c r="K2" t="n">
-        <v>93.92060305664472</v>
+        <v>93.92060305664467</v>
       </c>
       <c r="L2" t="n">
-        <v>153.7913200468046</v>
+        <v>153.7913200468045</v>
       </c>
       <c r="M2" t="n">
-        <v>203.1118067186566</v>
+        <v>203.1118067186565</v>
       </c>
       <c r="N2" t="n">
-        <v>211.0587806020923</v>
+        <v>211.0587806020922</v>
       </c>
       <c r="O2" t="n">
-        <v>185.8268607441513</v>
+        <v>185.8268607441512</v>
       </c>
       <c r="P2" t="n">
-        <v>123.7494305716378</v>
+        <v>123.7494305716377</v>
       </c>
       <c r="Q2" t="n">
-        <v>44.27132869117364</v>
+        <v>44.27132869117358</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34778,10 +34778,10 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>75.4384048176305</v>
+        <v>75.43840481763047</v>
       </c>
       <c r="L3" t="n">
-        <v>148.2266905659563</v>
+        <v>148.2266905659562</v>
       </c>
       <c r="M3" t="n">
         <v>192.5259485823473</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>215.5616691250135</v>
+        <v>118.240000033741</v>
       </c>
       <c r="Q3" t="n">
-        <v>28.61687799649641</v>
+        <v>125.9385470877688</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34875,7 +34875,7 @@
         <v>131.2029511204531</v>
       </c>
       <c r="Q4" t="n">
-        <v>6.56026382749684</v>
+        <v>6.560263827496826</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>63.70847814900733</v>
+        <v>63.7084781490064</v>
       </c>
       <c r="K5" t="n">
-        <v>146.7335225573789</v>
+        <v>146.7335225573776</v>
       </c>
       <c r="L5" t="n">
-        <v>219.3104167252603</v>
+        <v>219.3104167252586</v>
       </c>
       <c r="M5" t="n">
-        <v>276.0144259518419</v>
+        <v>276.0144259518399</v>
       </c>
       <c r="N5" t="n">
-        <v>285.1410404318124</v>
+        <v>285.1410404318105</v>
       </c>
       <c r="O5" t="n">
-        <v>255.7806379757921</v>
+        <v>255.7806379757903</v>
       </c>
       <c r="P5" t="n">
-        <v>183.4533610010076</v>
+        <v>183.4533610010061</v>
       </c>
       <c r="Q5" t="n">
-        <v>89.10649401243901</v>
+        <v>89.10649401243782</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>40.49699644960434</v>
+        <v>18.93640691959533</v>
       </c>
       <c r="K6" t="n">
-        <v>111.3096029710209</v>
+        <v>111.30960297102</v>
       </c>
       <c r="L6" t="n">
-        <v>196.4599432639923</v>
+        <v>196.4599432639911</v>
       </c>
       <c r="M6" t="n">
-        <v>248.8118794654004</v>
+        <v>248.8118794653989</v>
       </c>
       <c r="N6" t="n">
-        <v>269.9513763355787</v>
+        <v>291.5119658655819</v>
       </c>
       <c r="O6" t="n">
-        <v>224.5085324904232</v>
+        <v>224.5085324904219</v>
       </c>
       <c r="P6" t="n">
-        <v>160.6595406047357</v>
+        <v>160.6595406047346</v>
       </c>
       <c r="Q6" t="n">
-        <v>267.0505052237836</v>
+        <v>267.0505052237828</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,25 +35094,25 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>128.0174317142348</v>
+        <v>128.0174317142342</v>
       </c>
       <c r="L7" t="n">
-        <v>219.9055454148611</v>
+        <v>219.9055454148604</v>
       </c>
       <c r="M7" t="n">
-        <v>242.3536283391683</v>
+        <v>242.3536283391676</v>
       </c>
       <c r="N7" t="n">
-        <v>242.0805122814823</v>
+        <v>242.0805122814815</v>
       </c>
       <c r="O7" t="n">
-        <v>207.4224586809998</v>
+        <v>207.4224586809991</v>
       </c>
       <c r="P7" t="n">
-        <v>153.7274818609596</v>
+        <v>153.727481860959</v>
       </c>
       <c r="Q7" t="n">
-        <v>22.15508137491155</v>
+        <v>22.15508137491113</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.6579754225036</v>
+        <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407337</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
-        <v>356.8062301067507</v>
+        <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457276</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376314</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
-        <v>402.5828984949726</v>
+        <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637948</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.1958181402556</v>
+        <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.29166330939901</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.98022089091739</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K9" t="n">
-        <v>186.5874962434848</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378501</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820404</v>
+        <v>366.9313322820406</v>
       </c>
       <c r="N9" t="n">
-        <v>391.1970995928739</v>
+        <v>391.197099592874</v>
       </c>
       <c r="O9" t="n">
-        <v>640.5848321000387</v>
+        <v>474.3640795072282</v>
       </c>
       <c r="P9" t="n">
-        <v>474.0150488837094</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q9" t="n">
-        <v>116.4807223308545</v>
+        <v>116.4807223308546</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870592</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
-        <v>173.424759342349</v>
+        <v>173.4247593423491</v>
       </c>
       <c r="L10" t="n">
-        <v>278.0112915831069</v>
+        <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
         <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
-        <v>301.8881449860244</v>
+        <v>301.8881449860245</v>
       </c>
       <c r="O10" t="n">
-        <v>262.6644876295069</v>
+        <v>262.664487629507</v>
       </c>
       <c r="P10" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.881755458054</v>
+        <v>54.88175545805406</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35407,31 +35407,31 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>229.1600138937054</v>
+        <v>229.1600138937053</v>
       </c>
       <c r="K11" t="n">
-        <v>394.7024857525321</v>
+        <v>394.702485752532</v>
       </c>
       <c r="L11" t="n">
-        <v>526.9378424844786</v>
+        <v>526.9378424844783</v>
       </c>
       <c r="M11" t="n">
-        <v>618.3092105681833</v>
+        <v>618.3092105681832</v>
       </c>
       <c r="N11" t="n">
         <v>632.9745125214258</v>
       </c>
       <c r="O11" t="n">
-        <v>584.2299222739937</v>
+        <v>584.2299222739936</v>
       </c>
       <c r="P11" t="n">
-        <v>463.7772262067663</v>
+        <v>463.7772262067662</v>
       </c>
       <c r="Q11" t="n">
-        <v>299.6180424081474</v>
+        <v>299.6180424081473</v>
       </c>
       <c r="R11" t="n">
-        <v>88.01360235553079</v>
+        <v>88.01360235553074</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35492,25 +35492,25 @@
         <v>279.7332367854791</v>
       </c>
       <c r="L12" t="n">
-        <v>422.9263036949007</v>
+        <v>422.9263036949006</v>
       </c>
       <c r="M12" t="n">
-        <v>513.0874403601297</v>
+        <v>513.0874403601294</v>
       </c>
       <c r="N12" t="n">
-        <v>541.2215249507173</v>
+        <v>136.1980957999995</v>
       </c>
       <c r="O12" t="n">
-        <v>82.52070309383795</v>
+        <v>472.6677215480029</v>
       </c>
       <c r="P12" t="n">
         <v>359.8291679240143</v>
       </c>
       <c r="Q12" t="n">
-        <v>190.1128388187325</v>
+        <v>190.1128388187324</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>14.87641069655345</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.91672319186279</v>
+        <v>59.91672319186276</v>
       </c>
       <c r="K13" t="n">
         <v>229.6099018070198</v>
@@ -35574,19 +35574,19 @@
         <v>349.9089300703703</v>
       </c>
       <c r="M13" t="n">
-        <v>379.423969638847</v>
+        <v>379.4239696388469</v>
       </c>
       <c r="N13" t="n">
         <v>375.8916272323314</v>
       </c>
       <c r="O13" t="n">
-        <v>331.0186812946636</v>
+        <v>331.0186812946635</v>
       </c>
       <c r="P13" t="n">
-        <v>259.4854022142</v>
+        <v>259.4854022141999</v>
       </c>
       <c r="Q13" t="n">
-        <v>95.37638356776314</v>
+        <v>95.37638356776311</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>519.1933770937326</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35957,7 +35957,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35966,13 +35966,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>376.3054212373396</v>
+        <v>235.5010321525773</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36197,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>57.65947400496688</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096391</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36437,16 +36437,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>122.3296324324666</v>
       </c>
       <c r="L24" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>128.8146617507074</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>557.4845759992799</v>
@@ -36458,7 +36458,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,31 +36671,31 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>395.0475418999251</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,25 +36750,25 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
-        <v>295.631773306626</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>257.9506595121318</v>
+        <v>182.4093308120545</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,7 +37379,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37388,25 +37388,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,31 +37616,31 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>405.5586081824376</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>189.5729943876629</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>285.3607779319996</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
